--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F549C4-618C-4665-A0C0-0282D801F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33DDB65-7660-4C0D-B218-298E0AA8A3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,26 @@
   </si>
   <si>
     <t>신수베기 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흉수베기 피해량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1155,6 +1175,122 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>0.05</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>0.05</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>0.05</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33DDB65-7660-4C0D-B218-298E0AA8A3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB057940-3AA1-4049-92F4-DE06C825A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,22 @@
   </si>
   <si>
     <t>흉수베기 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1291,6 +1307,122 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>0.05</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB057940-3AA1-4049-92F4-DE06C825A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3964ADBA-302D-4F78-895B-89E933B7BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,22 @@
   </si>
   <si>
     <t>마룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅여우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1423,6 +1439,122 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3964ADBA-302D-4F78-895B-89E933B7BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D6901-2F51-4930-B8B7-EC35A3C78B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,22 @@
   </si>
   <si>
     <t>땅여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백산군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1555,6 +1571,122 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>0.09</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>0.09</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>0.09</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>0.09</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D6901-2F51-4930-B8B7-EC35A3C78B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3275C507-0D4E-4496-9230-B916606B29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,22 @@
   </si>
   <si>
     <t>백산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백천구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,6 +1703,122 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>0.11</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>0.11</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>0.11</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>0.11</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3275C507-0D4E-4496-9230-B916606B29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104005F-3828-4A10-AD90-2FDF25C8E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>백천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구베기 피해량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1715,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1726,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1740,10 +1744,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1755,7 +1759,7 @@
         <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1769,10 +1773,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -1784,7 +1788,7 @@
         <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1798,10 +1802,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1813,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H41">
         <v>0</v>
